--- a/Data/macket to print/New Лист Microsoft Excel.xlsx
+++ b/Data/macket to print/New Лист Microsoft Excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1476" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="2388" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="107">
   <si>
     <t>idMacket_to_Print</t>
   </si>
@@ -26,9 +26,6 @@
   </si>
   <si>
     <t>width</t>
-  </si>
-  <si>
-    <t>fk_macket_to_order</t>
   </si>
   <si>
     <t>fk_macket_format_type</t>
@@ -683,23 +680,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G51"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.77734375" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.77734375" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -707,13 +703,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -724,1758 +720,1555 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(0.5, 50.6)+RANDBETWEEN(1,9)/10</f>
-        <v>40.299999999999997</v>
+        <v>15.1</v>
       </c>
       <c r="C2">
-        <f ca="1">RANDBETWEEN(1,50)</f>
-        <v>50</v>
+        <f ca="1">RANDBETWEEN(350, 2000)+RANDBETWEEN(1,9)/10</f>
+        <v>902.9</v>
       </c>
       <c r="D2">
-        <f ca="1">RANDBETWEEN(350, 2000)+RANDBETWEEN(1,9)/10</f>
-        <v>1638.6</v>
+        <f ca="1">RANDBETWEEN(450, 4000)+RANDBETWEEN(1,9)/10</f>
+        <v>3827.6</v>
       </c>
       <c r="E2">
-        <f ca="1">RANDBETWEEN(450, 4000)+RANDBETWEEN(1,9)/10</f>
-        <v>2572.3000000000002</v>
-      </c>
-      <c r="F2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="1">
         <f ca="1">DATE(RANDBETWEEN(2000,2020), RANDBETWEEN(1,12), DAY(RANDBETWEEN(1,28)))</f>
-        <v>37377</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+        <v>37434</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B51" ca="1" si="0">RANDBETWEEN(0.5, 50.6)+RANDBETWEEN(1,9)/10</f>
-        <v>6.9</v>
+        <v>5.7</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C51" ca="1" si="1">RANDBETWEEN(1,50)</f>
-        <v>49</v>
+        <f t="shared" ref="C3:C51" ca="1" si="1">RANDBETWEEN(350, 2000)+RANDBETWEEN(1,9)/10</f>
+        <v>823.5</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D51" ca="1" si="2">RANDBETWEEN(350, 2000)+RANDBETWEEN(1,9)/10</f>
-        <v>725.3</v>
+        <f t="shared" ref="D3:D51" ca="1" si="2">RANDBETWEEN(450, 4000)+RANDBETWEEN(1,9)/10</f>
+        <v>3867.5</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E51" ca="1" si="3">RANDBETWEEN(450, 4000)+RANDBETWEEN(1,9)/10</f>
-        <v>3947.2</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F51" ca="1" si="4">RANDBETWEEN(1,5)</f>
-        <v>5</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="1">
-        <f t="shared" ref="H3:H51" ca="1" si="5">DATE(RANDBETWEEN(2000,2020), RANDBETWEEN(1,12), DAY(RANDBETWEEN(1,28)))</f>
-        <v>37327</v>
-      </c>
-      <c r="I3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+        <f t="shared" ref="E3:E51" ca="1" si="3">RANDBETWEEN(1,5)</f>
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G51" ca="1" si="4">DATE(RANDBETWEEN(2000,2020), RANDBETWEEN(1,12), DAY(RANDBETWEEN(1,28)))</f>
+        <v>42998</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>17.2</v>
+        <v>9.6</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>960.4</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="2"/>
-        <v>1274.3</v>
+        <v>1152.9000000000001</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="3"/>
-        <v>3243.2</v>
-      </c>
-      <c r="F4">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>38178</v>
-      </c>
-      <c r="I4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>40128</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>44.6</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>1048.8</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="2"/>
-        <v>1243.2</v>
+        <v>2170.6</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="3"/>
-        <v>2763.1</v>
-      </c>
-      <c r="F5">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>41290</v>
-      </c>
-      <c r="I5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>42680</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>37.299999999999997</v>
+        <v>7.1</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>712.7</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="2"/>
-        <v>1207.5999999999999</v>
+        <v>3482.8</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="3"/>
-        <v>2336.1</v>
-      </c>
-      <c r="F6">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H6" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>43888</v>
-      </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>39864</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>20.9</v>
+        <v>16.7</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>1433.5</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="2"/>
-        <v>1636.5</v>
+        <v>948.7</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="3"/>
-        <v>3660.5</v>
-      </c>
-      <c r="F7">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>37533</v>
-      </c>
-      <c r="I7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>37759</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>48.6</v>
+        <v>5.2</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
+        <v>1082.5</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="2"/>
+        <v>2122.4</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>37828</v>
+      </c>
+      <c r="H8" t="s">
         <v>14</v>
       </c>
-      <c r="D8">
-        <f t="shared" ca="1" si="2"/>
-        <v>1129.3</v>
-      </c>
-      <c r="E8">
-        <f t="shared" ca="1" si="3"/>
-        <v>522.5</v>
-      </c>
-      <c r="F8">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H8" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>40432</v>
-      </c>
-      <c r="I8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>17.5</v>
+        <v>45.7</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>655.6</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="2"/>
-        <v>1571.2</v>
+        <v>2414.8000000000002</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="3"/>
-        <v>1514.1</v>
-      </c>
-      <c r="F9">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>40986</v>
-      </c>
-      <c r="I9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>39353</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>21.7</v>
+        <v>4.3</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>833.9</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="2"/>
-        <v>493.1</v>
+        <v>1550.4</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="3"/>
-        <v>3135.2</v>
-      </c>
-      <c r="F10">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H10" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>36652</v>
-      </c>
-      <c r="I10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>37459</v>
+      </c>
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>48.8</v>
+        <v>12.5</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>1642.6</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="2"/>
-        <v>1254.5</v>
+        <v>1754.4</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="3"/>
-        <v>678.8</v>
-      </c>
-      <c r="F11">
-        <f t="shared" ca="1" si="4"/>
         <v>4</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H11" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>39505</v>
-      </c>
-      <c r="I11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="F11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>39419</v>
+      </c>
+      <c r="H11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1650.3</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="2"/>
-        <v>1129.5999999999999</v>
+        <v>1639.3</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="3"/>
-        <v>3776.2</v>
-      </c>
-      <c r="F12">
-        <f t="shared" ca="1" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H12" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>43440</v>
-      </c>
-      <c r="I12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>38395</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>33.200000000000003</v>
+        <v>46.4</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>392.3</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="2"/>
-        <v>1757.8</v>
+        <v>906.3</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="3"/>
-        <v>1972.1</v>
-      </c>
-      <c r="F13">
-        <f t="shared" ca="1" si="4"/>
         <v>5</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>37519</v>
-      </c>
-      <c r="I13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="F13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>43407</v>
+      </c>
+      <c r="H13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3</v>
+        <v>49.5</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>1655.3</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="2"/>
-        <v>1582.4</v>
+        <v>1265.5999999999999</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="3"/>
-        <v>3369.4</v>
-      </c>
-      <c r="F14">
-        <f t="shared" ca="1" si="4"/>
         <v>5</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H14" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>40269</v>
-      </c>
-      <c r="I14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="F14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>42042</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>28.9</v>
+        <v>41.4</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>1846.5</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="2"/>
-        <v>680.4</v>
+        <v>2041.6</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="3"/>
-        <v>3218.1</v>
-      </c>
-      <c r="F15">
-        <f t="shared" ca="1" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H15" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>38353</v>
-      </c>
-      <c r="I15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>40203</v>
+      </c>
+      <c r="H15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>39.5</v>
+        <v>6.7</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>1170.2</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="2"/>
-        <v>1775.7</v>
+        <v>1106.2</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="3"/>
-        <v>2159.1999999999998</v>
-      </c>
-      <c r="F16">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H16" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>39106</v>
-      </c>
-      <c r="I16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>39396</v>
+      </c>
+      <c r="H16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>8.4</v>
+        <v>46.1</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>886.7</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="2"/>
-        <v>684.9</v>
+        <v>1833.5</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="3"/>
-        <v>1937.5</v>
-      </c>
-      <c r="F17">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H17" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>42071</v>
-      </c>
-      <c r="I17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>41428</v>
+      </c>
+      <c r="H17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>30.9</v>
+        <v>6.6</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>1366.9</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="2"/>
-        <v>1210.0999999999999</v>
+        <v>2360.6999999999998</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="3"/>
-        <v>1083.4000000000001</v>
-      </c>
-      <c r="F18">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H18" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>40840</v>
-      </c>
-      <c r="I18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>43561</v>
+      </c>
+      <c r="H18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>44.2</v>
+        <v>33.1</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>852.5</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="2"/>
-        <v>1285.5</v>
+        <v>3919.7</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="3"/>
-        <v>1860.5</v>
-      </c>
-      <c r="F19">
-        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H19" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>41869</v>
-      </c>
-      <c r="I19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="F19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>44121</v>
+      </c>
+      <c r="H19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>40.1</v>
+        <v>5.8</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>660.5</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="2"/>
-        <v>905.4</v>
+        <v>1815.8</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="3"/>
-        <v>2717.6</v>
-      </c>
-      <c r="F20">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H20" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>37767</v>
-      </c>
-      <c r="I20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>42812</v>
+      </c>
+      <c r="H20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>543.9</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="2"/>
-        <v>1511.5</v>
+        <v>1196.5999999999999</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="3"/>
-        <v>2094.4</v>
-      </c>
-      <c r="F21">
-        <f t="shared" ca="1" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H21" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>39625</v>
-      </c>
-      <c r="I21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>37459</v>
+      </c>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>50.9</v>
+        <v>34.1</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>1783.4</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="2"/>
-        <v>810.4</v>
+        <v>1722.9</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="3"/>
-        <v>2846.9</v>
-      </c>
-      <c r="F22">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H22" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>37976</v>
-      </c>
-      <c r="I22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>41654</v>
+      </c>
+      <c r="H22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>30.9</v>
+        <v>36.9</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>409.8</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="2"/>
-        <v>358.1</v>
+        <v>2594.8000000000002</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="3"/>
-        <v>2272.6999999999998</v>
-      </c>
-      <c r="F23">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H23" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>42775</v>
-      </c>
-      <c r="I23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>40896</v>
+      </c>
+      <c r="H23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>7.9</v>
+        <v>37.5</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>1554.3</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="2"/>
-        <v>1555.9</v>
+        <v>2253.5</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="3"/>
-        <v>2276.1999999999998</v>
-      </c>
-      <c r="F24">
-        <f t="shared" ca="1" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H24" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>39989</v>
-      </c>
-      <c r="I24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>44176</v>
+      </c>
+      <c r="H24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>31.4</v>
+        <v>23.9</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
+        <v>688.3</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ca="1" si="2"/>
+        <v>2465.5</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
-      <c r="D25">
-        <f t="shared" ca="1" si="2"/>
-        <v>821.1</v>
-      </c>
-      <c r="E25">
-        <f t="shared" ca="1" si="3"/>
-        <v>1861.2</v>
-      </c>
-      <c r="F25">
-        <f t="shared" ca="1" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H25" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>40672</v>
-      </c>
-      <c r="I25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="F25" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>41389</v>
+      </c>
+      <c r="H25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>40.4</v>
+        <v>12.8</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>602.20000000000005</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="2"/>
-        <v>480.4</v>
+        <v>817.9</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="3"/>
-        <v>768.6</v>
-      </c>
-      <c r="F26">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H26" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>38396</v>
-      </c>
-      <c r="I26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>43363</v>
+      </c>
+      <c r="H26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>44.6</v>
+        <v>11.1</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>485.2</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="2"/>
-        <v>379.5</v>
+        <v>1446.2</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="3"/>
-        <v>1530.4</v>
-      </c>
-      <c r="F27">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H27" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>43862</v>
-      </c>
-      <c r="I27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>39282</v>
+      </c>
+      <c r="H27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>42.6</v>
+        <v>24.2</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>1443.4</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="2"/>
-        <v>1324.6</v>
+        <v>558.9</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="3"/>
-        <v>2044.5</v>
-      </c>
-      <c r="F28">
-        <f t="shared" ca="1" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H28" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>43340</v>
-      </c>
-      <c r="I28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>38967</v>
+      </c>
+      <c r="H28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="0"/>
-        <v>31.6</v>
+        <v>44.7</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>1045.5</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="2"/>
-        <v>655.29999999999995</v>
+        <v>1376.2</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="3"/>
-        <v>2893.6</v>
-      </c>
-      <c r="F29">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H29" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>41170</v>
-      </c>
-      <c r="I29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>40741</v>
+      </c>
+      <c r="H29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="0"/>
-        <v>23.9</v>
+        <v>31.1</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>1463.3</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="2"/>
-        <v>560.5</v>
+        <v>2363.3000000000002</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="3"/>
-        <v>3931.7</v>
-      </c>
-      <c r="F30">
-        <f t="shared" ca="1" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H30" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>44054</v>
-      </c>
-      <c r="I30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>41659</v>
+      </c>
+      <c r="H30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="0"/>
-        <v>48.2</v>
+        <v>26.3</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>980.8</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="2"/>
-        <v>1495.3</v>
+        <v>3966.4</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="3"/>
-        <v>1487.2</v>
-      </c>
-      <c r="F31">
-        <f t="shared" ca="1" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H31" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>41319</v>
-      </c>
-      <c r="I31" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>38941</v>
+      </c>
+      <c r="H31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="0"/>
-        <v>26.3</v>
+        <v>13.1</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>764.8</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="2"/>
-        <v>762.5</v>
+        <v>760.3</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="3"/>
-        <v>1994.2</v>
-      </c>
-      <c r="F32">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H32" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>38572</v>
-      </c>
-      <c r="I32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>39194</v>
+      </c>
+      <c r="H32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="0"/>
-        <v>35.4</v>
+        <v>44.9</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>370.3</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="2"/>
-        <v>1563.9</v>
+        <v>1434.7</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="3"/>
-        <v>1398.7</v>
-      </c>
-      <c r="F33">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H33" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>40811</v>
-      </c>
-      <c r="I33" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>38050</v>
+      </c>
+      <c r="H33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="0"/>
-        <v>19.5</v>
+        <v>34.1</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>507.9</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="2"/>
-        <v>553.1</v>
+        <v>1193.9000000000001</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="3"/>
-        <v>2819.3</v>
-      </c>
-      <c r="F34">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H34" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>37307</v>
-      </c>
-      <c r="I34" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>40069</v>
+      </c>
+      <c r="H34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="0"/>
-        <v>9.3000000000000007</v>
+        <v>27.9</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>633.5</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="2"/>
-        <v>437.9</v>
+        <v>2437.5</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="3"/>
-        <v>2589.6</v>
-      </c>
-      <c r="F35">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H35" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>39521</v>
-      </c>
-      <c r="I35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>41840</v>
+      </c>
+      <c r="H35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="0"/>
-        <v>34.700000000000003</v>
+        <v>28.6</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>645.9</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="2"/>
-        <v>1462.8</v>
+        <v>2463.1</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="3"/>
-        <v>3736.2</v>
-      </c>
-      <c r="F36">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H36" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>38570</v>
-      </c>
-      <c r="I36" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>42296</v>
+      </c>
+      <c r="H36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="0"/>
-        <v>18.3</v>
+        <v>3.5</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="1"/>
+        <v>1087.5</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ca="1" si="2"/>
+        <v>3356.2</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ca="1" si="3"/>
         <v>4</v>
       </c>
-      <c r="D37">
-        <f t="shared" ca="1" si="2"/>
-        <v>1695.4</v>
-      </c>
-      <c r="E37">
-        <f t="shared" ca="1" si="3"/>
-        <v>2939.6</v>
-      </c>
-      <c r="F37">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H37" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>41579</v>
-      </c>
-      <c r="I37" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="F37" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>37008</v>
+      </c>
+      <c r="H37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="0"/>
-        <v>41.8</v>
+        <v>26.1</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>1348.8</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="2"/>
-        <v>1241.5</v>
+        <v>3738.9</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="3"/>
-        <v>2268.1999999999998</v>
-      </c>
-      <c r="F38">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H38" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>38062</v>
-      </c>
-      <c r="I38" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>43256</v>
+      </c>
+      <c r="H38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="0"/>
-        <v>6.2</v>
+        <v>10.8</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>812.9</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="2"/>
-        <v>1869.4</v>
+        <v>3136.6</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="3"/>
-        <v>2467.9</v>
-      </c>
-      <c r="F39">
-        <f t="shared" ca="1" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H39" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>39592</v>
-      </c>
-      <c r="I39" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>38215</v>
+      </c>
+      <c r="H39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="0"/>
-        <v>46.5</v>
+        <v>49.1</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>1738.4</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="2"/>
-        <v>1022.5</v>
+        <v>2523.3000000000002</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="3"/>
-        <v>3795.5</v>
-      </c>
-      <c r="F40">
-        <f t="shared" ca="1" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H40" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>42554</v>
-      </c>
-      <c r="I40" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>42326</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="0"/>
-        <v>27.2</v>
+        <v>49.1</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="1"/>
+        <v>1225.0999999999999</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ca="1" si="2"/>
+        <v>2313.3000000000002</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ca="1" si="3"/>
         <v>4</v>
       </c>
-      <c r="D41">
-        <f t="shared" ca="1" si="2"/>
-        <v>770.5</v>
-      </c>
-      <c r="E41">
-        <f t="shared" ca="1" si="3"/>
-        <v>1196.2</v>
-      </c>
-      <c r="F41">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H41" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>37664</v>
-      </c>
-      <c r="I41" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="F41" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>36929</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="0"/>
-        <v>37.299999999999997</v>
+        <v>45.3</v>
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>1087.2</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="2"/>
-        <v>501.4</v>
+        <v>3957.5</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="3"/>
-        <v>2833.2</v>
-      </c>
-      <c r="F42">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H42" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>42418</v>
-      </c>
-      <c r="I42" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>39876</v>
+      </c>
+      <c r="H42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="0"/>
-        <v>41.5</v>
+        <v>42.7</v>
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>1706.9</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="2"/>
-        <v>1154.8</v>
+        <v>935.4</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="3"/>
-        <v>1491.5</v>
-      </c>
-      <c r="F43">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H43" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>40959</v>
-      </c>
-      <c r="I43" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>36719</v>
+      </c>
+      <c r="H43" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="0"/>
-        <v>50.1</v>
+        <v>46.3</v>
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>1998.9</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="2"/>
-        <v>1830.5</v>
+        <v>3028.2</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="3"/>
-        <v>1806.9</v>
-      </c>
-      <c r="F44">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H44" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>43875</v>
-      </c>
-      <c r="I44" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G44" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>38184</v>
+      </c>
+      <c r="H44" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="0"/>
-        <v>43.3</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>1312.1</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="2"/>
-        <v>1444.4</v>
+        <v>965.6</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="3"/>
-        <v>3204.5</v>
-      </c>
-      <c r="F45">
-        <f t="shared" ca="1" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H45" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>43579</v>
-      </c>
-      <c r="I45" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G45" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>42043</v>
+      </c>
+      <c r="H45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="0"/>
-        <v>35.1</v>
+        <v>8.6</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>922.7</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="2"/>
-        <v>1859.3</v>
+        <v>599.20000000000005</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="3"/>
-        <v>2109.4</v>
-      </c>
-      <c r="F46">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H46" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>40370</v>
-      </c>
-      <c r="I46" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G46" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>41009</v>
+      </c>
+      <c r="H46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="0"/>
-        <v>14.8</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>789.2</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="2"/>
-        <v>1460.9</v>
+        <v>3767.1</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="3"/>
-        <v>1226.3</v>
-      </c>
-      <c r="F47">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H47" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>43170</v>
-      </c>
-      <c r="I47" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G47" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>39974</v>
+      </c>
+      <c r="H47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="0"/>
-        <v>40.299999999999997</v>
+        <v>11.7</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>833.9</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="2"/>
-        <v>1887.5</v>
+        <v>3450.4</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="3"/>
-        <v>3263.4</v>
-      </c>
-      <c r="F48">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H48" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>42881</v>
-      </c>
-      <c r="I48" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G48" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>38432</v>
+      </c>
+      <c r="H48" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="0"/>
-        <v>8.5</v>
+        <v>3.7</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>1661.2</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="2"/>
-        <v>772.5</v>
+        <v>2125.4</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="3"/>
-        <v>2543.3000000000002</v>
-      </c>
-      <c r="F49">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H49" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>39090</v>
-      </c>
-      <c r="I49" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G49" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>40402</v>
+      </c>
+      <c r="H49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="0"/>
-        <v>24.8</v>
+        <v>3.7</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>1598.3</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="2"/>
-        <v>823.6</v>
+        <v>1140.2</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="3"/>
-        <v>1561.8</v>
-      </c>
-      <c r="F50">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H50" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>36697</v>
-      </c>
-      <c r="I50" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G50" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>41777</v>
+      </c>
+      <c r="H50" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="0"/>
-        <v>38.299999999999997</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>1081.2</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="2"/>
-        <v>554.1</v>
+        <v>2686.9</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="3"/>
-        <v>2585.6999999999998</v>
-      </c>
-      <c r="F51">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H51" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>38249</v>
-      </c>
-      <c r="I51" t="s">
-        <v>58</v>
+        <v>1</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G51" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>39682</v>
+      </c>
+      <c r="H51" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
